--- a/gastos.xlsx
+++ b/gastos.xlsx
@@ -594,7 +594,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Viagem</t>
+          <t>Nova Linha 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
